--- a/All_data/figures/mixed_CMC_results.xlsx
+++ b/All_data/figures/mixed_CMC_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -660,7 +660,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NaDC</t>
+          <t>SDS</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -668,23 +668,23 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NaC</t>
+          <t>CAPB</t>
         </is>
       </c>
       <c r="D10" t="n">
         <v>0.95</v>
       </c>
       <c r="E10" t="n">
-        <v>13.03852404185067</v>
+        <v>1.107940144503726</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9724567862924989</v>
+        <v>0.8629082807695483</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NaDC</t>
+          <t>SDS</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -692,23 +692,23 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NaC</t>
+          <t>CAPB</t>
         </is>
       </c>
       <c r="D11" t="n">
         <v>0.8</v>
       </c>
       <c r="E11" t="n">
-        <v>8.390794383414811</v>
+        <v>0.9446641905846883</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9646710401717491</v>
+        <v>0.7929086311669274</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NaDC</t>
+          <t>SDS</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -716,23 +716,23 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NaC</t>
+          <t>CAPB</t>
         </is>
       </c>
       <c r="D12" t="n">
         <v>0.5</v>
       </c>
       <c r="E12" t="n">
-        <v>4.739894210454037</v>
+        <v>1.630421681609651</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9629083642469911</v>
+        <v>0.8575036202105852</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NaDC</t>
+          <t>SDS</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -747,10 +747,10 @@
         <v>0.2</v>
       </c>
       <c r="E13" t="n">
-        <v>3.333169044235047</v>
+        <v>3.06805255216337</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9701465278642581</v>
+        <v>0.6708212770984661</v>
       </c>
     </row>
     <row r="14">
@@ -760,151 +760,151 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8</v>
+        <v>0.05</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CHAPS</t>
+          <t>NaC</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.2</v>
+        <v>0.95</v>
       </c>
       <c r="E14" t="n">
-        <v>1.840795194826569</v>
+        <v>13.03852404185067</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9543027908662255</v>
+        <v>0.9724567862924989</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CTAB</t>
+          <t>NaDC</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DTAB</t>
+          <t>NaC</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E15" t="n">
-        <v>1.67233788679677</v>
+        <v>8.390794383414811</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8804821502341376</v>
+        <v>0.9646710401717491</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CTAB</t>
+          <t>NaDC</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DTAB</t>
+          <t>NaC</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="E16" t="n">
-        <v>1.302298598593179</v>
+        <v>4.739894210454037</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9244539832676156</v>
+        <v>0.9629083642469911</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CTAB</t>
+          <t>NaDC</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>TTAB</t>
+          <t>CAPB</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="E17" t="n">
-        <v>2.430550562626289</v>
+        <v>0.9434091923365838</v>
       </c>
       <c r="F17" t="n">
-        <v>0.895319258307184</v>
+        <v>0.8120196378801773</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CTAB</t>
+          <t>NaDC</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>TTAB</t>
+          <t>CAPB</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="E18" t="n">
-        <v>1.31663885776358</v>
+        <v>1.252163277721859</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9095138523978021</v>
+        <v>0.8145001396968956</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CTAB</t>
+          <t>NaDC</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>TTAB</t>
+          <t>CAPB</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="E19" t="n">
-        <v>1.196471455200067</v>
+        <v>1.422371929625136</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9444244703392228</v>
+        <v>0.8251703345597599</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CTAB</t>
+          <t>NaDC</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -912,19 +912,19 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9133453758921096</v>
+        <v>3.333169044235047</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8063612037828183</v>
+        <v>0.9701465278642581</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CTAB</t>
+          <t>NaDC</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -939,20 +939,20 @@
         <v>0.05</v>
       </c>
       <c r="E21" t="n">
-        <v>1.096685187829226</v>
+        <v>3.513583132951983</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8897861085964481</v>
+        <v>0.9734101651324446</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CTAB</t>
+          <t>NaDC</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -960,71 +960,71 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9196918479681711</v>
+        <v>1.840795194826569</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8958631487264995</v>
+        <v>0.9543027908662255</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>CTAB</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>DTAB</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>TTAB</t>
-        </is>
-      </c>
       <c r="D23" t="n">
         <v>0.5</v>
       </c>
       <c r="E23" t="n">
-        <v>5.508155633818942</v>
+        <v>1.67233788679677</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9110159895601069</v>
+        <v>0.8804821502341376</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>CTAB</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>DTAB</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>TTAB</t>
-        </is>
-      </c>
       <c r="D24" t="n">
         <v>0.2</v>
       </c>
       <c r="E24" t="n">
-        <v>8.833682811651151</v>
+        <v>1.302298598593179</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9367702365345416</v>
+        <v>0.9244539832676156</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DTAB</t>
+          <t>CTAB</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.95</v>
+        <v>0.05</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1032,43 +1032,43 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.05</v>
+        <v>0.95</v>
       </c>
       <c r="E25" t="n">
-        <v>12.27166299473763</v>
+        <v>3.442233207531995</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9463852859299534</v>
+        <v>0.9068705063677643</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>DTAB</t>
+          <t>CTAB</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CAPB</t>
+          <t>TTAB</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="E26" t="n">
-        <v>1.121500652256056</v>
+        <v>2.430550562626289</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8715131752116616</v>
+        <v>0.895319258307184</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>DTAB</t>
+          <t>CTAB</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1076,161 +1076,905 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CAPB</t>
+          <t>TTAB</t>
         </is>
       </c>
       <c r="D27" t="n">
         <v>0.5</v>
       </c>
       <c r="E27" t="n">
-        <v>1.393132936395698</v>
+        <v>1.560888814650639</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8335447065809473</v>
+        <v>0.9234397566613035</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>DTAB</t>
+          <t>CTAB</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.05</v>
+        <v>0.8</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CHAPS</t>
+          <t>TTAB</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.95</v>
+        <v>0.2</v>
       </c>
       <c r="E28" t="n">
-        <v>6.050266856819204</v>
+        <v>1.31663885776358</v>
       </c>
       <c r="F28" t="n">
-        <v>0.963291533856966</v>
+        <v>0.9095138523978021</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>CTAB</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>TTAB</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>CHAPS</t>
-        </is>
-      </c>
       <c r="D29" t="n">
-        <v>0.95</v>
+        <v>0.05</v>
       </c>
       <c r="E29" t="n">
-        <v>3.03363122194448</v>
+        <v>1.196471455200067</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9142128726809929</v>
+        <v>0.9444244703392228</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>TTAB</t>
+          <t>CTAB</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.8</v>
+        <v>0.05</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CHAPS</t>
+          <t>CAPB</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.2</v>
+        <v>0.95</v>
       </c>
       <c r="E30" t="n">
-        <v>2.197917313051321</v>
+        <v>0.8620451058954345</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9077087936887396</v>
+        <v>0.9103086530154506</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CAPB</t>
+          <t>CTAB</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CHAPS</t>
+          <t>CAPB</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="E31" t="n">
-        <v>5.06014439768759</v>
+        <v>0.9133453758921096</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9620993189923459</v>
+        <v>0.8063612037828183</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CAPB</t>
+          <t>CTAB</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CHAPS</t>
+          <t>CAPB</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E32" t="n">
-        <v>2.690269738225737</v>
+        <v>0.9788225602692182</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9187756748055735</v>
+        <v>0.8654936345561669</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CAPB</t>
+          <t>CTAB</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>CAPB</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.116109035469927</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.910075892709731</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CTAB</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>CAPB</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.096685187829226</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.8897861085964481</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CTAB</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>CHAPS</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E33" t="n">
+      <c r="D35" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.752536707031666</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.9199262542010429</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>CTAB</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>CHAPS</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.9196918479681711</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.8958631487264995</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>CTAB</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>CHAPS</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.807467505236562</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.8637937853440457</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>CTAB</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>CHAPS</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.7819415292865287</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.9711007718549743</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>DTAB</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>TTAB</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4.227172998328409</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.9305331088322456</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>DTAB</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>TTAB</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E40" t="n">
+        <v>4.416578572485142</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.9105813292477388</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>DTAB</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>TTAB</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E41" t="n">
+        <v>5.508155633818942</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.9110159895601069</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>DTAB</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>TTAB</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E42" t="n">
+        <v>8.833682811651151</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.9367702365345416</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>DTAB</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>TTAB</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E43" t="n">
+        <v>12.27166299473763</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.9463852859299534</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>DTAB</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>CAPB</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.121500652256056</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.8715131752116616</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>DTAB</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>CAPB</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.07259166569515</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.8601800835930604</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>DTAB</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>CAPB</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.393132936395698</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.8335447065809473</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>DTAB</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>CAPB</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2.863398861635328</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.8892189604334159</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>DTAB</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>CAPB</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E48" t="n">
+        <v>9.816075417527486</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.8818145533190146</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>DTAB</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>CHAPS</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E49" t="n">
+        <v>6.050266856819204</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.963291533856966</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>TTAB</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>CAPB</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.7560292023376494</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.8280383161757101</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>TTAB</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>CAPB</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.187258193619681</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.9531128290477728</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>TTAB</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>CAPB</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1.568515989439881</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.8686517099357107</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>TTAB</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>CAPB</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2.981212747024813</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.8449795164378626</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>TTAB</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>CAPB</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3.733499786818366</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.9352634269501552</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>TTAB</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>CHAPS</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3.03363122194448</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.9142128726809929</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>TTAB</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>CHAPS</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2.314919685281887</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.8661089771810445</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>TTAB</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>CHAPS</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1.98785735765594</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.9719755042559609</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>TTAB</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>CHAPS</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2.197917313051321</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.9077087936887396</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>TTAB</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>CHAPS</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2.997121442759868</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.882456579510547</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>CAPB</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>CHAPS</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E60" t="n">
+        <v>5.06014439768759</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.9620993189923459</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>CAPB</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>CHAPS</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2.690269738225737</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.9187756748055735</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>CAPB</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>CHAPS</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E62" t="n">
         <v>0.9893544265778624</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F62" t="n">
         <v>0.9061852657333321</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>CAPB</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>CHAPS</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.9712824940342161</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.8957127055670815</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>CAPB</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>CHAPS</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.8227446759709606</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.8334987036781554</v>
       </c>
     </row>
   </sheetData>
